--- a/data/trans_bre/P10_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P10_2_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 5,19</t>
+          <t>-3,99; 5,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 16,77</t>
+          <t>4,13; 16,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,14</t>
+          <t>-1,52; 3,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 103,99</t>
+          <t>-41,73; 111,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,24; 238,91</t>
+          <t>33,18; 242,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 362,28</t>
+          <t>-52,45; 289,09</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 11,05</t>
+          <t>3,56; 11,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 11,37</t>
+          <t>2,88; 11,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,3</t>
+          <t>2,52; 8,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 7,01</t>
+          <t>0,47; 7,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,99; 198,68</t>
+          <t>37,9; 203,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,18; 200,72</t>
+          <t>28,07; 193,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,76; 501,14</t>
+          <t>51,12; 468,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 128,43</t>
+          <t>4,81; 129,67</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 4,64</t>
+          <t>-0,14; 4,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 10,2</t>
+          <t>1,13; 9,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 6,28</t>
+          <t>0,3; 6,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,89</t>
+          <t>-2,61; 3,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 1261,68</t>
+          <t>-31,4; 1296,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,13; 286,66</t>
+          <t>13,15; 245,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 592,44</t>
+          <t>-5,04; 669,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 106,39</t>
+          <t>-34,27; 93,47</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,49</t>
+          <t>2,66; 8,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 16,98</t>
+          <t>9,17; 16,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 14,76</t>
+          <t>5,27; 15,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 9,18</t>
+          <t>0,21; 9,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,21; 1284,06</t>
+          <t>67,17; 941,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>103,61; 284,18</t>
+          <t>97,22; 278,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,54; 222,48</t>
+          <t>44,74; 219,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 230,85</t>
+          <t>-2,32; 210,36</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 4,44</t>
+          <t>-4,44; 4,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 19,29</t>
+          <t>7,22; 19,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 8,06</t>
+          <t>-0,48; 8,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,2</t>
+          <t>2,44; 9,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 124,48</t>
+          <t>-57,4; 117,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>104,59; 757,74</t>
+          <t>98,11; 828,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 357,85</t>
+          <t>-13,49; 398,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,78; 502,26</t>
+          <t>47,22; 540,9</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,11; 5,75</t>
+          <t>0,15; 5,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 7,95</t>
+          <t>-0,89; 8,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 9,79</t>
+          <t>-1,39; 9,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,87</t>
+          <t>-1,68; 4,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 1241,58</t>
+          <t>-24,16; 1096,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 160,08</t>
+          <t>-9,83; 177,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 176,66</t>
+          <t>-14,79; 165,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 146,63</t>
+          <t>-27,62; 120,42</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,13</t>
+          <t>1,41; 7,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,13</t>
+          <t>0,62; 6,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 9,18</t>
+          <t>2,52; 9,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 7,39</t>
+          <t>-1,56; 7,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,72; 181,39</t>
+          <t>17,94; 175,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,51; 192,98</t>
+          <t>8,23; 191,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,48; 200,2</t>
+          <t>34,13; 207,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 109,6</t>
+          <t>-15,48; 106,93</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,46</t>
+          <t>-1,44; 4,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,46; 10,06</t>
+          <t>2,96; 9,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,04</t>
+          <t>0,38; 5,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,46; 13,35</t>
+          <t>7,69; 13,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 73,19</t>
+          <t>-16,42; 67,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,4; 144,22</t>
+          <t>27,39; 135,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,0; 162,78</t>
+          <t>5,8; 157,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>106,85; 312,99</t>
+          <t>114,55; 304,78</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,53</t>
+          <t>2,05; 4,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,72; 8,64</t>
+          <t>5,65; 8,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,66</t>
+          <t>4,01; 6,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,2</t>
+          <t>3,37; 6,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,81; 97,13</t>
+          <t>35,97; 96,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>76,37; 141,25</t>
+          <t>76,86; 143,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>69,32; 141,85</t>
+          <t>65,94; 139,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>53,07; 116,83</t>
+          <t>51,11; 118,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P10_2_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 5,14</t>
+          <t>-4,21; 4,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 16,44</t>
+          <t>4,24; 16,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 111,09</t>
+          <t>-44,54; 87,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,18; 242,19</t>
+          <t>32,45; 241,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 11,16</t>
+          <t>3,55; 11,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 11,33</t>
+          <t>2,28; 10,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,19</t>
+          <t>2,51; 8,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,9; 203,26</t>
+          <t>37,73; 194,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,07; 193,92</t>
+          <t>20,92; 192,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,12; 468,5</t>
+          <t>56,69; 487,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,94</t>
+          <t>-0,44; 4,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 9,5</t>
+          <t>1,47; 10,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 6,23</t>
+          <t>0,23; 6,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 1296,75</t>
+          <t>-55,45; 1028,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,15; 245,21</t>
+          <t>17,54; 258,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 669,08</t>
+          <t>-11,84; 589,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 8,56</t>
+          <t>2,29; 8,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 16,68</t>
+          <t>9,35; 16,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 15,16</t>
+          <t>5,06; 15,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,17; 941,91</t>
+          <t>57,23; 970,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,22; 278,85</t>
+          <t>96,99; 268,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,74; 219,0</t>
+          <t>42,6; 230,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 4,42</t>
+          <t>-4,93; 4,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 19,12</t>
+          <t>6,86; 18,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 8,96</t>
+          <t>-0,89; 8,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-57,4; 117,4</t>
+          <t>-58,19; 127,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>98,11; 828,17</t>
+          <t>96,64; 817,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 398,79</t>
+          <t>-17,8; 365,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 5,6</t>
+          <t>-0,13; 5,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,4</t>
+          <t>-0,89; 8,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 9,75</t>
+          <t>-1,07; 10,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 1096,66</t>
+          <t>-34,02; 1132,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 177,23</t>
+          <t>-12,85; 172,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 165,23</t>
+          <t>-13,03; 169,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 7,26</t>
+          <t>1,56; 7,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,04</t>
+          <t>0,95; 5,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,52; 9,13</t>
+          <t>2,61; 9,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,94; 175,73</t>
+          <t>15,83; 190,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,23; 191,93</t>
+          <t>14,62; 188,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,13; 207,59</t>
+          <t>34,15; 200,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,33</t>
+          <t>-1,25; 4,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,96; 9,78</t>
+          <t>3,18; 10,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,38; 5,01</t>
+          <t>0,33; 5,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 67,52</t>
+          <t>-13,47; 71,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,39; 135,46</t>
+          <t>29,44; 146,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,8; 157,28</t>
+          <t>4,68; 154,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,49</t>
+          <t>2,11; 4,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,69</t>
+          <t>5,75; 8,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,69</t>
+          <t>3,91; 6,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>35,97; 96,04</t>
+          <t>36,79; 97,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>76,86; 143,71</t>
+          <t>76,14; 144,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>65,94; 139,16</t>
+          <t>66,15; 140,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
